--- a/public/excel/工程公司项目.xlsx
+++ b/public/excel/工程公司项目.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM5"/>
+  <dimension ref="A1:BM4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -633,16 +633,16 @@
         <v>备注...</v>
       </c>
       <c r="U2" t="str">
-        <v>乙供</v>
+        <v>甲供</v>
       </c>
       <c r="V2" t="str">
-        <v/>
+        <v>3123/21/32</v>
       </c>
       <c r="W2" t="str">
-        <v/>
+        <v>2132/13/21</v>
       </c>
       <c r="X2" t="str">
-        <v>2313212</v>
+        <v/>
       </c>
       <c r="Y2" t="str">
         <v>光缆材料表A</v>
@@ -753,281 +753,281 @@
         <v>备注...</v>
       </c>
       <c r="BI2" t="str">
-        <v>实际收款</v>
+        <v>321321</v>
       </c>
       <c r="BJ2" t="str">
-        <v>施工队结款</v>
+        <v>231321</v>
       </c>
       <c r="BK2" t="str">
-        <v>其他费用</v>
+        <v>-3321</v>
       </c>
       <c r="BL2" t="str">
-        <v>利润</v>
+        <v>93321</v>
       </c>
       <c r="BM2" t="str">
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>213</v>
+        <v>GC20150308002</v>
       </c>
       <c r="B3" t="str">
-        <v>213编号</v>
+        <v>a传输14-203-006</v>
       </c>
       <c r="C3" t="str">
-        <v>213啊</v>
+        <v>2011-14-09-005</v>
       </c>
       <c r="D3" t="str">
-        <v>333大大大</v>
+        <v>2014年集客AB类客户厚覆盖建设工程</v>
       </c>
       <c r="E3" t="str">
-        <v>333大大大啊</v>
+        <v>甲方</v>
       </c>
       <c r="F3" t="str">
-        <v>213</v>
+        <v>乙方</v>
       </c>
       <c r="G3" t="str">
-        <v>覆盖网</v>
+        <v>光交网</v>
       </c>
       <c r="H3" t="str">
-        <v>管道</v>
+        <v>客户端</v>
       </c>
       <c r="I3" t="str">
-        <v>111111111</v>
+        <v>项目名称a d</v>
       </c>
       <c r="J3" t="str">
-        <v>122222222222</v>
+        <v>工程地址ddd</v>
       </c>
       <c r="K3" t="str">
-        <v>中国移动</v>
+        <v>中国联通</v>
       </c>
       <c r="L3" t="str">
-        <v>黄浦</v>
+        <v>松江</v>
       </c>
       <c r="M3" t="str">
-        <v>京移</v>
+        <v>华信</v>
       </c>
       <c r="N3" t="str">
-        <v>321</v>
+        <v>设计负责人sdfa</v>
       </c>
       <c r="O3" t="str">
-        <v>公诚</v>
+        <v>华讯</v>
       </c>
       <c r="P3" t="str">
-        <v>1221</v>
+        <v>监理负责人sdf</v>
       </c>
       <c r="Q3" t="str">
-        <v>中邮通</v>
+        <v>辉程</v>
       </c>
       <c r="R3" t="str">
-        <v/>
+        <v>施工队负责人fads</v>
       </c>
       <c r="S3" t="str">
-        <v/>
+        <v>3123/21/32</v>
       </c>
       <c r="T3" t="str">
-        <v/>
+        <v>备注...fads</v>
       </c>
       <c r="U3" t="str">
-        <v>甲供</v>
+        <v>乙供</v>
       </c>
       <c r="V3" t="str">
-        <v>3123/21/32</v>
+        <v/>
       </c>
       <c r="W3" t="str">
-        <v>3213/21/32</v>
+        <v/>
       </c>
       <c r="X3" t="str">
-        <v/>
+        <v>3213213</v>
       </c>
       <c r="Y3" t="str">
-        <v>管道材料表A</v>
+        <v>光缆材料表B</v>
       </c>
       <c r="Z3" t="str">
-        <v/>
+        <v>备注...</v>
       </c>
       <c r="AA3" t="str">
-        <v>未开工</v>
+        <v>在建</v>
       </c>
       <c r="AB3" t="str">
-        <v/>
+        <v>施工情况简述</v>
       </c>
       <c r="AC3" t="str">
-        <v/>
+        <v>7657/56/76</v>
       </c>
       <c r="AD3" t="str">
-        <v/>
+        <v>5657/65/75</v>
       </c>
       <c r="AE3" t="str">
-        <v/>
+        <v>完工时间</v>
       </c>
       <c r="AF3" t="str">
-        <v/>
+        <v>监理验收情况</v>
       </c>
       <c r="AG3" t="str">
-        <v/>
+        <v>监理验收问题反馈</v>
       </c>
       <c r="AH3" t="str">
-        <v/>
+        <v>甲方验收情况</v>
       </c>
       <c r="AI3" t="str">
-        <v>办理中</v>
+        <v>管照已上交</v>
       </c>
       <c r="AJ3" t="str">
-        <v/>
+        <v>配合费（附件）</v>
       </c>
       <c r="AK3" t="str">
-        <v/>
+        <v>选线费（附件）</v>
       </c>
       <c r="AL3" t="str">
-        <v/>
+        <v>跟测费（附件）</v>
       </c>
       <c r="AM3" t="str">
-        <v/>
+        <v>备注...</v>
       </c>
       <c r="AN3" t="str">
-        <v>2131/23/21</v>
+        <v>7567/65/76</v>
       </c>
       <c r="AO3" t="str">
-        <v>2313/21/32</v>
+        <v>5354/35/43</v>
       </c>
       <c r="AP3" t="str">
-        <v>3213/21/32</v>
+        <v>6546/54/65</v>
       </c>
       <c r="AQ3" t="str">
-        <v>已反馈</v>
+        <v>未反馈</v>
       </c>
       <c r="AR3" t="str">
         <v>光缆</v>
       </c>
       <c r="AS3" t="str">
-        <v>321321312</v>
+        <v>备注...</v>
       </c>
       <c r="AT3" t="str">
-        <v>已签订</v>
+        <v>未签订</v>
       </c>
       <c r="AU3" t="str">
-        <v/>
+        <v>6546/54/65</v>
       </c>
       <c r="AV3" t="str">
-        <v/>
+        <v>合同文本（附件）</v>
       </c>
       <c r="AW3" t="str">
-        <v/>
+        <v>合同总金额</v>
       </c>
       <c r="AX3" t="str">
-        <v/>
+        <v>预付款</v>
       </c>
       <c r="AY3" t="str">
-        <v/>
+        <v>7585/54/63</v>
       </c>
       <c r="AZ3" t="str">
-        <v/>
+        <v>6546/54/45</v>
       </c>
       <c r="BA3" t="str">
-        <v/>
+        <v>5435/34/54</v>
       </c>
       <c r="BB3" t="str">
-        <v/>
+        <v>4324/23/43</v>
       </c>
       <c r="BC3" t="str">
-        <v/>
+        <v>3422/34/23</v>
       </c>
       <c r="BD3" t="str">
-        <v/>
+        <v>4321/46/35</v>
       </c>
       <c r="BE3" t="str">
         <v>是</v>
       </c>
       <c r="BF3" t="str">
-        <v/>
+        <v>7657/87/68</v>
       </c>
       <c r="BG3" t="str">
-        <v/>
+        <v>审定金额</v>
       </c>
       <c r="BH3" t="str">
-        <v/>
+        <v>备注...</v>
       </c>
       <c r="BI3" t="str">
-        <v/>
+        <v>213312</v>
       </c>
       <c r="BJ3" t="str">
-        <v/>
+        <v>12</v>
       </c>
       <c r="BK3" t="str">
-        <v/>
+        <v>321</v>
       </c>
       <c r="BL3" t="str">
-        <v>321</v>
+        <v>212979</v>
       </c>
       <c r="BM3" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>GC20150308002</v>
+        <v/>
       </c>
       <c r="B4" t="str">
-        <v>a传输14-203-006</v>
+        <v>324</v>
       </c>
       <c r="C4" t="str">
-        <v>2011-14-09-005</v>
+        <v>234</v>
       </c>
       <c r="D4" t="str">
-        <v>2014年集客AB类客户厚覆盖建设工程</v>
+        <v>234</v>
       </c>
       <c r="E4" t="str">
-        <v>甲方</v>
+        <v>234</v>
       </c>
       <c r="F4" t="str">
-        <v>乙方</v>
+        <v>234</v>
       </c>
       <c r="G4" t="str">
         <v>覆盖网</v>
       </c>
       <c r="H4" t="str">
-        <v>客户端</v>
+        <v>管道</v>
       </c>
       <c r="I4" t="str">
-        <v>项目名称a d</v>
+        <v>2</v>
       </c>
       <c r="J4" t="str">
-        <v>工程地址ddd</v>
+        <v>3</v>
       </c>
       <c r="K4" t="str">
-        <v>中国联通</v>
+        <v>中国移动</v>
       </c>
       <c r="L4" t="str">
-        <v>松江</v>
+        <v>黄浦</v>
       </c>
       <c r="M4" t="str">
-        <v>华信</v>
+        <v>京移</v>
       </c>
       <c r="N4" t="str">
-        <v>设计负责人sdfa</v>
+        <v>34</v>
       </c>
       <c r="O4" t="str">
-        <v>华讯</v>
+        <v>公诚</v>
       </c>
       <c r="P4" t="str">
-        <v>监理负责人sdf</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="str">
-        <v>辉程</v>
+        <v>中邮通</v>
       </c>
       <c r="R4" t="str">
-        <v>施工队负责人fads</v>
+        <v>3</v>
       </c>
       <c r="S4" t="str">
-        <v>3123/21/32</v>
+        <v/>
       </c>
       <c r="T4" t="str">
-        <v>备注...fads</v>
+        <v>4</v>
       </c>
       <c r="U4" t="str">
-        <v>乙供</v>
+        <v>甲供</v>
       </c>
       <c r="V4" t="str">
         <v/>
@@ -1036,327 +1036,130 @@
         <v/>
       </c>
       <c r="X4" t="str">
-        <v>3213213</v>
+        <v/>
       </c>
       <c r="Y4" t="str">
-        <v>光缆材料表B</v>
+        <v>管道材料表A</v>
       </c>
       <c r="Z4" t="str">
-        <v>备注...</v>
+        <v/>
       </c>
       <c r="AA4" t="str">
-        <v>在建</v>
+        <v>未开工</v>
       </c>
       <c r="AB4" t="str">
-        <v>施工情况简述</v>
+        <v/>
       </c>
       <c r="AC4" t="str">
-        <v>7657/56/76</v>
+        <v/>
       </c>
       <c r="AD4" t="str">
-        <v>5657/65/75</v>
+        <v/>
       </c>
       <c r="AE4" t="str">
-        <v>完工时间</v>
+        <v/>
       </c>
       <c r="AF4" t="str">
-        <v>监理验收情况</v>
+        <v/>
       </c>
       <c r="AG4" t="str">
-        <v>监理验收问题反馈</v>
+        <v/>
       </c>
       <c r="AH4" t="str">
-        <v>甲方验收情况</v>
+        <v/>
       </c>
       <c r="AI4" t="str">
-        <v>管照已上交</v>
+        <v>办理中</v>
       </c>
       <c r="AJ4" t="str">
-        <v>配合费（附件）</v>
+        <v/>
       </c>
       <c r="AK4" t="str">
-        <v>选线费（附件）</v>
+        <v/>
       </c>
       <c r="AL4" t="str">
-        <v>跟测费（附件）</v>
+        <v/>
       </c>
       <c r="AM4" t="str">
-        <v>备注...</v>
+        <v/>
       </c>
       <c r="AN4" t="str">
-        <v>7567/65/76</v>
+        <v/>
       </c>
       <c r="AO4" t="str">
-        <v>5354/35/43</v>
+        <v/>
       </c>
       <c r="AP4" t="str">
-        <v>6546/54/65</v>
+        <v/>
       </c>
       <c r="AQ4" t="str">
-        <v>未反馈</v>
+        <v>已反馈</v>
       </c>
       <c r="AR4" t="str">
         <v>光缆</v>
       </c>
       <c r="AS4" t="str">
-        <v>备注...</v>
+        <v/>
       </c>
       <c r="AT4" t="str">
-        <v>未签订</v>
+        <v>已签订</v>
       </c>
       <c r="AU4" t="str">
-        <v>6546/54/65</v>
+        <v/>
       </c>
       <c r="AV4" t="str">
-        <v>合同文本（附件）</v>
+        <v/>
       </c>
       <c r="AW4" t="str">
-        <v>合同总金额</v>
+        <v/>
       </c>
       <c r="AX4" t="str">
-        <v>预付款</v>
+        <v/>
       </c>
       <c r="AY4" t="str">
-        <v>7585/54/63</v>
+        <v/>
       </c>
       <c r="AZ4" t="str">
-        <v>6546/54/45</v>
+        <v/>
       </c>
       <c r="BA4" t="str">
-        <v>5435/34/54</v>
+        <v/>
       </c>
       <c r="BB4" t="str">
-        <v>4324/23/43</v>
+        <v/>
       </c>
       <c r="BC4" t="str">
-        <v>3422/34/23</v>
+        <v/>
       </c>
       <c r="BD4" t="str">
-        <v>4321/46/35</v>
+        <v/>
       </c>
       <c r="BE4" t="str">
         <v>是</v>
       </c>
       <c r="BF4" t="str">
-        <v>7657/87/68</v>
+        <v/>
       </c>
       <c r="BG4" t="str">
-        <v>审定金额</v>
+        <v/>
       </c>
       <c r="BH4" t="str">
-        <v>备注...</v>
+        <v/>
       </c>
       <c r="BI4" t="str">
-        <v>实际收款</v>
+        <v/>
       </c>
       <c r="BJ4" t="str">
-        <v>施工队结款</v>
+        <v/>
       </c>
       <c r="BK4" t="str">
-        <v>其他费用</v>
+        <v/>
       </c>
       <c r="BL4" t="str">
-        <v>利润</v>
+        <v/>
       </c>
       <c r="BM4" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>4444</v>
-      </c>
-      <c r="B5" t="str">
-        <v>短发</v>
-      </c>
-      <c r="C5" t="str">
-        <v>大道伐</v>
-      </c>
-      <c r="D5" t="str">
-        <v>王企鹅wq</v>
-      </c>
-      <c r="E5" t="str">
-        <v>而我却二泉网</v>
-      </c>
-      <c r="F5" t="str">
-        <v>俄文</v>
-      </c>
-      <c r="G5" t="str">
-        <v>光交网</v>
-      </c>
-      <c r="H5" t="str">
-        <v>设备</v>
-      </c>
-      <c r="I5" t="str">
-        <v>而我却而我却</v>
-      </c>
-      <c r="J5" t="str">
-        <v>恩恩发大财</v>
-      </c>
-      <c r="K5" t="str">
-        <v>中国联通</v>
-      </c>
-      <c r="L5" t="str">
-        <v>宝山</v>
-      </c>
-      <c r="M5" t="str">
-        <v>华信</v>
-      </c>
-      <c r="N5" t="str">
-        <v>多撒导出</v>
-      </c>
-      <c r="O5" t="str">
-        <v>网桥</v>
-      </c>
-      <c r="P5" t="str">
-        <v/>
-      </c>
-      <c r="Q5" t="str">
-        <v>中邮通</v>
-      </c>
-      <c r="R5" t="str">
-        <v>大</v>
-      </c>
-      <c r="S5" t="str">
-        <v>2132/13/21</v>
-      </c>
-      <c r="T5" t="str">
-        <v>21312321</v>
-      </c>
-      <c r="U5" t="str">
-        <v>乙供</v>
-      </c>
-      <c r="V5" t="str">
-        <v/>
-      </c>
-      <c r="W5" t="str">
-        <v/>
-      </c>
-      <c r="X5" t="str">
-        <v>321321</v>
-      </c>
-      <c r="Y5" t="str">
-        <v>光缆材料表A</v>
-      </c>
-      <c r="Z5" t="str">
-        <v>213123123213</v>
-      </c>
-      <c r="AA5" t="str">
-        <v>受阻</v>
-      </c>
-      <c r="AB5" t="str">
-        <v>321321321321</v>
-      </c>
-      <c r="AC5" t="str">
-        <v/>
-      </c>
-      <c r="AD5" t="str">
-        <v/>
-      </c>
-      <c r="AE5" t="str">
-        <v/>
-      </c>
-      <c r="AF5" t="str">
-        <v/>
-      </c>
-      <c r="AG5" t="str">
-        <v/>
-      </c>
-      <c r="AH5" t="str">
-        <v>21321</v>
-      </c>
-      <c r="AI5" t="str">
-        <v>办理中</v>
-      </c>
-      <c r="AJ5" t="str">
-        <v/>
-      </c>
-      <c r="AK5" t="str">
-        <v/>
-      </c>
-      <c r="AL5" t="str">
-        <v/>
-      </c>
-      <c r="AM5" t="str">
-        <v>21321321</v>
-      </c>
-      <c r="AN5" t="str">
-        <v/>
-      </c>
-      <c r="AO5" t="str">
-        <v/>
-      </c>
-      <c r="AP5" t="str">
-        <v/>
-      </c>
-      <c r="AQ5" t="str">
-        <v>已反馈</v>
-      </c>
-      <c r="AR5" t="str">
-        <v>光缆</v>
-      </c>
-      <c r="AS5" t="str">
-        <v/>
-      </c>
-      <c r="AT5" t="str">
-        <v>已签订</v>
-      </c>
-      <c r="AU5" t="str">
-        <v/>
-      </c>
-      <c r="AV5" t="str">
-        <v/>
-      </c>
-      <c r="AW5" t="str">
-        <v/>
-      </c>
-      <c r="AX5" t="str">
-        <v/>
-      </c>
-      <c r="AY5" t="str">
-        <v/>
-      </c>
-      <c r="AZ5" t="str">
-        <v/>
-      </c>
-      <c r="BA5" t="str">
-        <v/>
-      </c>
-      <c r="BB5" t="str">
-        <v/>
-      </c>
-      <c r="BC5" t="str">
-        <v/>
-      </c>
-      <c r="BD5" t="str">
-        <v/>
-      </c>
-      <c r="BE5" t="str">
-        <v>是</v>
-      </c>
-      <c r="BF5" t="str">
-        <v/>
-      </c>
-      <c r="BG5" t="str">
-        <v/>
-      </c>
-      <c r="BH5" t="str">
-        <v/>
-      </c>
-      <c r="BI5" t="str">
-        <v/>
-      </c>
-      <c r="BJ5" t="str">
-        <v/>
-      </c>
-      <c r="BK5" t="str">
-        <v/>
-      </c>
-      <c r="BL5" t="str">
-        <v>213</v>
-      </c>
-      <c r="BM5" t="str">
-        <v>4</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/public/excel/工程公司项目.xlsx
+++ b/public/excel/工程公司项目.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM4"/>
+  <dimension ref="A1:BM5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -967,7 +967,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v/>
+        <v>123</v>
       </c>
       <c r="B4" t="str">
         <v>324</v>
@@ -1159,6 +1159,203 @@
         <v/>
       </c>
       <c r="BM4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v>434</v>
+      </c>
+      <c r="C5" t="str">
+        <v>34</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v>覆盖网</v>
+      </c>
+      <c r="H5" t="str">
+        <v>管道</v>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <v/>
+      </c>
+      <c r="K5" t="str">
+        <v>中国移动</v>
+      </c>
+      <c r="L5" t="str">
+        <v>黄浦</v>
+      </c>
+      <c r="M5" t="str">
+        <v>京移</v>
+      </c>
+      <c r="N5" t="str">
+        <v/>
+      </c>
+      <c r="O5" t="str">
+        <v>公诚</v>
+      </c>
+      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="Q5" t="str">
+        <v>中邮通</v>
+      </c>
+      <c r="R5" t="str">
+        <v/>
+      </c>
+      <c r="S5" t="str">
+        <v/>
+      </c>
+      <c r="T5" t="str">
+        <v/>
+      </c>
+      <c r="U5" t="str">
+        <v>甲供</v>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+      <c r="W5" t="str">
+        <v/>
+      </c>
+      <c r="X5" t="str">
+        <v/>
+      </c>
+      <c r="Y5" t="str">
+        <v>管道材料表A</v>
+      </c>
+      <c r="Z5" t="str">
+        <v/>
+      </c>
+      <c r="AA5" t="str">
+        <v>未开工</v>
+      </c>
+      <c r="AB5" t="str">
+        <v/>
+      </c>
+      <c r="AC5" t="str">
+        <v/>
+      </c>
+      <c r="AD5" t="str">
+        <v/>
+      </c>
+      <c r="AE5" t="str">
+        <v/>
+      </c>
+      <c r="AF5" t="str">
+        <v/>
+      </c>
+      <c r="AG5" t="str">
+        <v/>
+      </c>
+      <c r="AH5" t="str">
+        <v/>
+      </c>
+      <c r="AI5" t="str">
+        <v>办理中</v>
+      </c>
+      <c r="AJ5" t="str">
+        <v/>
+      </c>
+      <c r="AK5" t="str">
+        <v/>
+      </c>
+      <c r="AL5" t="str">
+        <v/>
+      </c>
+      <c r="AM5" t="str">
+        <v/>
+      </c>
+      <c r="AN5" t="str">
+        <v/>
+      </c>
+      <c r="AO5" t="str">
+        <v/>
+      </c>
+      <c r="AP5" t="str">
+        <v/>
+      </c>
+      <c r="AQ5" t="str">
+        <v>已反馈</v>
+      </c>
+      <c r="AR5" t="str">
+        <v>光缆</v>
+      </c>
+      <c r="AS5" t="str">
+        <v/>
+      </c>
+      <c r="AT5" t="str">
+        <v>已签订</v>
+      </c>
+      <c r="AU5" t="str">
+        <v/>
+      </c>
+      <c r="AV5" t="str">
+        <v/>
+      </c>
+      <c r="AW5" t="str">
+        <v/>
+      </c>
+      <c r="AX5" t="str">
+        <v/>
+      </c>
+      <c r="AY5" t="str">
+        <v/>
+      </c>
+      <c r="AZ5" t="str">
+        <v/>
+      </c>
+      <c r="BA5" t="str">
+        <v/>
+      </c>
+      <c r="BB5" t="str">
+        <v/>
+      </c>
+      <c r="BC5" t="str">
+        <v/>
+      </c>
+      <c r="BD5" t="str">
+        <v/>
+      </c>
+      <c r="BE5" t="str">
+        <v>是</v>
+      </c>
+      <c r="BF5" t="str">
+        <v/>
+      </c>
+      <c r="BG5" t="str">
+        <v/>
+      </c>
+      <c r="BH5" t="str">
+        <v/>
+      </c>
+      <c r="BI5" t="str">
+        <v/>
+      </c>
+      <c r="BJ5" t="str">
+        <v/>
+      </c>
+      <c r="BK5" t="str">
+        <v/>
+      </c>
+      <c r="BL5" t="str">
+        <v/>
+      </c>
+      <c r="BM5" t="str">
         <v/>
       </c>
     </row>
